--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59414.86251350651</v>
+        <v>-70806.04378025232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31182975.35012193</v>
+        <v>31178837.10944979</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20197610.57631796</v>
+        <v>20208275.51026465</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>746315.6723792708</v>
+        <v>743068.0646154416</v>
       </c>
     </row>
     <row r="11">
@@ -2320,59 +2320,59 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D23" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="F23" t="n">
+      <c r="T23" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="G23" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>8.091688641907758</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,67 +2633,67 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8.091688641907758</v>
+      </c>
+      <c r="U27" t="n">
+        <v>8.091688641907758</v>
+      </c>
+      <c r="V27" t="n">
         <v>7.127159355792352</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="U28" t="n">
-        <v>8.091688641907758</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="V28" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,58 +2794,58 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="G29" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.127159355792352</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.12715935579235</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="U30" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="V30" t="n">
-        <v>8.091688641907758</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="W30" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,64 +2949,64 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.127159355792352</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="S31" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7.127159355792352</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.12715935579235</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,11 +3119,11 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="U33" t="n">
+        <v>8.091688641907758</v>
+      </c>
+      <c r="V33" t="n">
         <v>7.127159355792352</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>7.12715935579235</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="V34" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,11 +3265,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="W35" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="H36" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="V36" t="n">
-        <v>7.127159355792352</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>8.091688641907758</v>
+      </c>
+      <c r="S37" t="n">
         <v>7.12715935579235</v>
       </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="W37" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C38" t="n">
+        <v>7.127159355792352</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="T38" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>7.127159355792352</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3599,52 +3599,52 @@
         <v>8.091688641907758</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
+      <c r="V39" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="T39" t="n">
-        <v>7.12715935579235</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,58 +3666,58 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="I40" t="n">
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,73 +3742,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="T41" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="F41" t="n">
+      <c r="U41" t="n">
+        <v>7.127159355792352</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,14 +3818,14 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.12715935579235</v>
+      </c>
+      <c r="D42" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.127159355792352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>8.091688641907758</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>7.12715935579235</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="U43" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="V43" t="n">
-        <v>8.091688641907758</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>13.26313419174921</v>
+        <v>7.12715935579235</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>15.05805425947912</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="T45" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="S46" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="T46" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C23" t="n">
-        <v>32.36675456763103</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D23" t="n">
-        <v>25.16760370319432</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E23" t="n">
-        <v>16.99418083258042</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F23" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G23" t="n">
         <v>0.6473350913526207</v>
@@ -5989,52 +5989,52 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="L23" t="n">
-        <v>3.221710050338442</v>
+        <v>10.11748552709261</v>
       </c>
       <c r="M23" t="n">
-        <v>11.23248180582712</v>
+        <v>18.12825728258129</v>
       </c>
       <c r="N23" t="n">
-        <v>19.2432535613158</v>
+        <v>26.13902903806998</v>
       </c>
       <c r="O23" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P23" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R23" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="S23" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T23" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U23" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V23" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="W23" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="X23" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>24.19333169701714</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.19333169701714</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.01990882640324</v>
+      </c>
+      <c r="E24" t="n">
         <v>8.820757961966519</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.6473350913526207</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6473350913526207</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6473350913526207</v>
-      </c>
       <c r="F24" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G24" t="n">
         <v>0.6473350913526207</v>
@@ -6074,10 +6074,10 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L24" t="n">
-        <v>3.664206143180497</v>
+        <v>8.174748029065183</v>
       </c>
       <c r="M24" t="n">
-        <v>11.67497789866918</v>
+        <v>16.18551978455386</v>
       </c>
       <c r="N24" t="n">
         <v>19.68574965415786</v>
@@ -6095,25 +6095,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S24" t="n">
-        <v>25.16760370319432</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T24" t="n">
-        <v>16.99418083258042</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="U24" t="n">
-        <v>8.820757961966519</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V24" t="n">
-        <v>8.820757961966519</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W24" t="n">
-        <v>8.820757961966519</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X24" t="n">
-        <v>8.820757961966519</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.820757961966519</v>
+        <v>32.36675456763103</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="C25" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D25" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E25" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F25" t="n">
         <v>0.6473350913526207</v>
@@ -6153,16 +6153,16 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="M25" t="n">
-        <v>8.334439301164986</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="N25" t="n">
-        <v>16.34521105665367</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="O25" t="n">
-        <v>24.35598281214235</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P25" t="n">
         <v>32.36675456763103</v>
@@ -6174,7 +6174,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S25" t="n">
-        <v>24.19333169701714</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T25" t="n">
         <v>24.19333169701714</v>
@@ -6192,7 +6192,7 @@
         <v>7.84648595578934</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.84648595578934</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C26" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D26" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E26" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F26" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G26" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H26" t="n">
         <v>0.6473350913526207</v>
@@ -6226,28 +6226,28 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="L26" t="n">
-        <v>3.221710050338442</v>
+        <v>10.11748552709261</v>
       </c>
       <c r="M26" t="n">
-        <v>11.23248180582712</v>
+        <v>18.12825728258129</v>
       </c>
       <c r="N26" t="n">
-        <v>19.2432535613158</v>
+        <v>26.13902903806998</v>
       </c>
       <c r="O26" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P26" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R26" t="n">
         <v>32.36675456763103</v>
@@ -6259,19 +6259,19 @@
         <v>24.19333169701714</v>
       </c>
       <c r="U26" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V26" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W26" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X26" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.84648595578934</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C27" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D27" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E27" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F27" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G27" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H27" t="n">
         <v>0.6473350913526207</v>
@@ -6314,10 +6314,10 @@
         <v>8.174748029065183</v>
       </c>
       <c r="M27" t="n">
-        <v>11.67497789866918</v>
+        <v>16.18551978455386</v>
       </c>
       <c r="N27" t="n">
-        <v>19.68574965415786</v>
+        <v>24.19629154004254</v>
       </c>
       <c r="O27" t="n">
         <v>27.69652140964654</v>
@@ -6332,25 +6332,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S27" t="n">
-        <v>24.19333169701714</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T27" t="n">
         <v>24.19333169701714</v>
       </c>
       <c r="U27" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V27" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W27" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X27" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G28" t="n">
         <v>0.6473350913526207</v>
@@ -6384,52 +6384,52 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="L28" t="n">
-        <v>8.658106846841303</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="M28" t="n">
-        <v>16.66887860232998</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="N28" t="n">
         <v>24.35598281214235</v>
       </c>
       <c r="O28" t="n">
-        <v>32.36675456763103</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="P28" t="n">
-        <v>32.36675456763103</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="Q28" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="R28" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="S28" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T28" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U28" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="V28" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W28" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X28" t="n">
-        <v>7.84648595578934</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="C29" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D29" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E29" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F29" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G29" t="n">
-        <v>7.84648595578934</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="H29" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I29" t="n">
         <v>0.6473350913526207</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="K29" t="n">
         <v>7.543110568106792</v>
@@ -6490,25 +6490,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S29" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="U29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="V29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="W29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="X29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.36675456763103</v>
+        <v>16.99418083258042</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G30" t="n">
         <v>0.6473350913526207</v>
@@ -6572,22 +6572,22 @@
         <v>32.36675456763103</v>
       </c>
       <c r="T30" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="U30" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V30" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W30" t="n">
-        <v>7.84648595578934</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.01990882640324</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="C31" t="n">
-        <v>16.01990882640324</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="D31" t="n">
         <v>7.84648595578934</v>
@@ -6612,7 +6612,7 @@
         <v>7.84648595578934</v>
       </c>
       <c r="G31" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H31" t="n">
         <v>0.6473350913526207</v>
@@ -6627,16 +6627,16 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="M31" t="n">
-        <v>8.658106846841303</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="N31" t="n">
-        <v>16.34521105665367</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="O31" t="n">
-        <v>24.35598281214235</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P31" t="n">
         <v>32.36675456763103</v>
@@ -6645,28 +6645,28 @@
         <v>32.36675456763103</v>
       </c>
       <c r="R31" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="S31" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="T31" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U31" t="n">
-        <v>32.36675456763103</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="V31" t="n">
-        <v>32.36675456763103</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="W31" t="n">
-        <v>32.36675456763103</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="X31" t="n">
-        <v>32.36675456763103</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.19333169701714</v>
+        <v>7.84648595578934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6473350913526207</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6473350913526207</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F32" t="n">
         <v>0.6473350913526207</v>
@@ -6706,46 +6706,46 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L32" t="n">
-        <v>8.334439301164986</v>
+        <v>3.221710050338442</v>
       </c>
       <c r="M32" t="n">
-        <v>16.34521105665367</v>
+        <v>11.23248180582712</v>
       </c>
       <c r="N32" t="n">
-        <v>24.35598281214235</v>
+        <v>19.2432535613158</v>
       </c>
       <c r="O32" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="P32" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="R32" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="S32" t="n">
-        <v>32.36675456763103</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="T32" t="n">
-        <v>32.36675456763103</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="U32" t="n">
-        <v>32.36675456763103</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="V32" t="n">
-        <v>24.19333169701714</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="W32" t="n">
-        <v>16.01990882640324</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="X32" t="n">
-        <v>7.84648595578934</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6473350913526207</v>
+        <v>25.16760370319432</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>8.820757961966519</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G33" t="n">
         <v>0.6473350913526207</v>
@@ -6785,13 +6785,13 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L33" t="n">
-        <v>8.174748029065183</v>
+        <v>3.664206143180497</v>
       </c>
       <c r="M33" t="n">
-        <v>16.18551978455386</v>
+        <v>11.67497789866918</v>
       </c>
       <c r="N33" t="n">
-        <v>24.19629154004254</v>
+        <v>19.68574965415786</v>
       </c>
       <c r="O33" t="n">
         <v>27.69652140964654</v>
@@ -6806,13 +6806,13 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S33" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="T33" t="n">
         <v>24.19333169701714</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>16.01990882640324</v>
-      </c>
-      <c r="U33" t="n">
-        <v>8.820757961966519</v>
       </c>
       <c r="V33" t="n">
         <v>8.820757961966519</v>
@@ -6858,22 +6858,22 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="N34" t="n">
-        <v>8.658106846841303</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="O34" t="n">
-        <v>16.66887860232998</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="P34" t="n">
         <v>24.67965035781867</v>
@@ -6882,25 +6882,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="R34" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="S34" t="n">
         <v>24.19333169701714</v>
       </c>
-      <c r="S34" t="n">
-        <v>16.01990882640324</v>
-      </c>
       <c r="T34" t="n">
-        <v>16.01990882640324</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="U34" t="n">
-        <v>16.01990882640324</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="V34" t="n">
         <v>8.820757961966519</v>
       </c>
       <c r="W34" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X34" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y34" t="n">
         <v>0.6473350913526207</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C35" t="n">
         <v>0.6473350913526207</v>
@@ -6937,19 +6937,19 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="L35" t="n">
-        <v>8.334439301164986</v>
+        <v>10.11748552709261</v>
       </c>
       <c r="M35" t="n">
-        <v>16.34521105665367</v>
+        <v>18.12825728258129</v>
       </c>
       <c r="N35" t="n">
-        <v>24.35598281214235</v>
+        <v>26.13902903806998</v>
       </c>
       <c r="O35" t="n">
         <v>32.36675456763103</v>
@@ -6964,22 +6964,22 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S35" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T35" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U35" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V35" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W35" t="n">
-        <v>24.19333169701714</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X35" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y35" t="n">
         <v>8.820757961966519</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="C36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="D36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="E36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="F36" t="n">
-        <v>8.820757961966519</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="G36" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H36" t="n">
         <v>0.6473350913526207</v>
@@ -7046,22 +7046,22 @@
         <v>32.36675456763103</v>
       </c>
       <c r="T36" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="U36" t="n">
         <v>24.19333169701714</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>16.01990882640324</v>
       </c>
-      <c r="V36" t="n">
-        <v>8.820757961966519</v>
-      </c>
       <c r="W36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="X36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C37" t="n">
         <v>0.6473350913526207</v>
@@ -7098,34 +7098,34 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="K37" t="n">
-        <v>8.658106846841303</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="L37" t="n">
-        <v>8.658106846841303</v>
+        <v>16.34521105665367</v>
       </c>
       <c r="M37" t="n">
-        <v>8.658106846841303</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="N37" t="n">
-        <v>16.66887860232998</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="O37" t="n">
         <v>24.35598281214235</v>
       </c>
       <c r="P37" t="n">
-        <v>24.35598281214235</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q37" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="R37" t="n">
-        <v>25.16760370319432</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="S37" t="n">
-        <v>25.16760370319432</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="T37" t="n">
-        <v>25.16760370319432</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="U37" t="n">
         <v>16.99418083258042</v>
@@ -7134,13 +7134,13 @@
         <v>8.820757961966519</v>
       </c>
       <c r="W37" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X37" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.19333169701714</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="C38" t="n">
-        <v>16.01990882640324</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D38" t="n">
-        <v>16.01990882640324</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E38" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F38" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G38" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H38" t="n">
         <v>0.6473350913526207</v>
@@ -7180,46 +7180,46 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L38" t="n">
-        <v>3.221710050338442</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="M38" t="n">
-        <v>11.23248180582712</v>
+        <v>16.34521105665367</v>
       </c>
       <c r="N38" t="n">
-        <v>19.2432535613158</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="O38" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P38" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q38" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R38" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="S38" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T38" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U38" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V38" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="W38" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="X38" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="Y38" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G39" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H39" t="n">
         <v>0.6473350913526207</v>
@@ -7262,7 +7262,7 @@
         <v>8.174748029065183</v>
       </c>
       <c r="M39" t="n">
-        <v>16.18551978455386</v>
+        <v>11.67497789866918</v>
       </c>
       <c r="N39" t="n">
         <v>19.68574965415786</v>
@@ -7280,25 +7280,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S39" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="T39" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="U39" t="n">
         <v>24.19333169701714</v>
       </c>
-      <c r="T39" t="n">
-        <v>16.99418083258042</v>
-      </c>
-      <c r="U39" t="n">
-        <v>16.99418083258042</v>
-      </c>
       <c r="V39" t="n">
-        <v>16.99418083258042</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="W39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D40" t="n">
-        <v>25.16760370319432</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E40" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F40" t="n">
-        <v>16.99418083258042</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G40" t="n">
-        <v>16.99418083258042</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H40" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I40" t="n">
         <v>0.6473350913526207</v>
       </c>
       <c r="J40" t="n">
+        <v>0.6473350913526207</v>
+      </c>
+      <c r="K40" t="n">
         <v>8.658106846841303</v>
-      </c>
-      <c r="K40" t="n">
-        <v>16.66887860232998</v>
       </c>
       <c r="L40" t="n">
         <v>16.66887860232998</v>
@@ -7344,40 +7344,40 @@
         <v>16.66887860232998</v>
       </c>
       <c r="N40" t="n">
-        <v>24.35598281214235</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="O40" t="n">
-        <v>24.35598281214235</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="P40" t="n">
-        <v>24.35598281214235</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q40" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="R40" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="S40" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T40" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="V40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.16760370319432</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="C41" t="n">
-        <v>16.99418083258042</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D41" t="n">
-        <v>16.99418083258042</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E41" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F41" t="n">
         <v>0.6473350913526207</v>
@@ -7414,19 +7414,19 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="K41" t="n">
-        <v>7.543110568106792</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L41" t="n">
-        <v>10.11748552709261</v>
+        <v>3.221710050338442</v>
       </c>
       <c r="M41" t="n">
-        <v>18.12825728258129</v>
+        <v>11.23248180582712</v>
       </c>
       <c r="N41" t="n">
-        <v>26.13902903806998</v>
+        <v>19.2432535613158</v>
       </c>
       <c r="O41" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="P41" t="n">
         <v>32.36675456763103</v>
@@ -7438,25 +7438,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S41" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T41" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U41" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="V41" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W41" t="n">
-        <v>32.36675456763103</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X41" t="n">
-        <v>32.36675456763103</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.16760370319432</v>
+        <v>0.6473350913526207</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6473350913526207</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="H42" t="n">
         <v>0.6473350913526207</v>
@@ -7523,7 +7523,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="U42" t="n">
-        <v>24.19333169701714</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V42" t="n">
         <v>24.19333169701714</v>
@@ -7532,10 +7532,10 @@
         <v>24.19333169701714</v>
       </c>
       <c r="X42" t="n">
-        <v>16.01990882640324</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.820757961966519</v>
+        <v>24.19333169701714</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D43" t="n">
         <v>0.6473350913526207</v>
@@ -7572,49 +7572,49 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="K43" t="n">
-        <v>8.334439301164986</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="L43" t="n">
-        <v>16.34521105665367</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="M43" t="n">
-        <v>16.34521105665367</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="N43" t="n">
-        <v>16.34521105665367</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="O43" t="n">
-        <v>24.35598281214235</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="P43" t="n">
-        <v>24.35598281214235</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q43" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="R43" t="n">
-        <v>25.16760370319432</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="S43" t="n">
-        <v>25.16760370319432</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T43" t="n">
+        <v>24.19333169701714</v>
+      </c>
+      <c r="U43" t="n">
+        <v>24.19333169701714</v>
+      </c>
+      <c r="V43" t="n">
         <v>16.99418083258042</v>
       </c>
-      <c r="U43" t="n">
-        <v>8.820757961966519</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.6473350913526207</v>
-      </c>
       <c r="W43" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="X43" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6473350913526207</v>
+        <v>16.99418083258042</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.20464434075833</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D44" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E44" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F44" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G44" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="H44" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="I44" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J44" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K44" t="n">
-        <v>3.442330717834865</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L44" t="n">
-        <v>12.21491484027812</v>
+        <v>3.221710050338442</v>
       </c>
       <c r="M44" t="n">
-        <v>27.12238855716245</v>
+        <v>11.23248180582712</v>
       </c>
       <c r="N44" t="n">
-        <v>42.02986227404679</v>
+        <v>19.2432535613158</v>
       </c>
       <c r="O44" t="n">
-        <v>54.87532469310607</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="P44" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R44" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="S44" t="n">
-        <v>45.02206122026082</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T44" t="n">
-        <v>29.81190540260513</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="U44" t="n">
-        <v>29.81190540260513</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V44" t="n">
-        <v>29.81190540260513</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W44" t="n">
-        <v>14.60174958494945</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X44" t="n">
-        <v>1.20464434075833</v>
+        <v>25.16760370319432</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.20464434075833</v>
+        <v>16.99418083258042</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="C45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="D45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="E45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="F45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="G45" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="H45" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I45" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J45" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K45" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L45" t="n">
-        <v>13.29499852785217</v>
+        <v>8.174748029065183</v>
       </c>
       <c r="M45" t="n">
-        <v>21.90820629660674</v>
+        <v>16.18551978455386</v>
       </c>
       <c r="N45" t="n">
-        <v>36.81568001349108</v>
+        <v>24.19629154004254</v>
       </c>
       <c r="O45" t="n">
-        <v>51.54902890335264</v>
+        <v>27.69652140964654</v>
       </c>
       <c r="P45" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R45" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="S45" t="n">
-        <v>45.02206122026082</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T45" t="n">
-        <v>29.81190540260513</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U45" t="n">
-        <v>29.81190540260513</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="W45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="X45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.41480015841401</v>
+        <v>16.01990882640324</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="C46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="D46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="E46" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F46" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G46" t="n">
-        <v>1.20464434075833</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="H46" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I46" t="n">
-        <v>1.20464434075833</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J46" t="n">
-        <v>16.11211805764266</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K46" t="n">
-        <v>16.11211805764266</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="L46" t="n">
-        <v>30.41726960414783</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="M46" t="n">
-        <v>30.41726960414783</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="N46" t="n">
-        <v>30.41726960414783</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="O46" t="n">
-        <v>30.41726960414783</v>
+        <v>16.34521105665367</v>
       </c>
       <c r="P46" t="n">
-        <v>45.32474332103217</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.2322170379165</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R46" t="n">
-        <v>45.02206122026082</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="S46" t="n">
-        <v>29.81190540260513</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="T46" t="n">
-        <v>14.60174958494945</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="U46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="V46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="W46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="X46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.60174958494945</v>
+        <v>8.820757961966519</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>11.3271920526384</v>
       </c>
       <c r="K11" t="n">
-        <v>8.648232478941662</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L11" t="n">
         <v>4.671789743482165</v>
@@ -8710,7 +8710,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.10441994252907</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R11" t="n">
         <v>21.64193954842993</v>
@@ -8859,13 +8859,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N13" t="n">
-        <v>6.116136330339108</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O13" t="n">
-        <v>8.983460966937349</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P13" t="n">
-        <v>10.81576169638986</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q13" t="n">
         <v>16.61252925040833</v>
@@ -8929,7 +8929,7 @@
         <v>11.3271920526384</v>
       </c>
       <c r="K14" t="n">
-        <v>8.648232478941662</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L14" t="n">
         <v>4.671789743482165</v>
@@ -8947,7 +8947,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.10441994252907</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R14" t="n">
         <v>21.64193954842993</v>
@@ -9096,13 +9096,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N16" t="n">
-        <v>6.116136330339108</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O16" t="n">
-        <v>8.983460966937349</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P16" t="n">
-        <v>10.81576169638986</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q16" t="n">
         <v>16.61252925040833</v>
@@ -9166,7 +9166,7 @@
         <v>11.3271920526384</v>
       </c>
       <c r="K17" t="n">
-        <v>8.648232478941662</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L17" t="n">
         <v>4.671789743482165</v>
@@ -9184,7 +9184,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.10441994252907</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R17" t="n">
         <v>21.64193954842993</v>
@@ -9333,13 +9333,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N19" t="n">
-        <v>6.116136330339108</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O19" t="n">
-        <v>8.983460966937349</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P19" t="n">
-        <v>10.81576169638986</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q19" t="n">
         <v>16.61252925040833</v>
@@ -9403,7 +9403,7 @@
         <v>11.3271920526384</v>
       </c>
       <c r="K20" t="n">
-        <v>8.648232478941662</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L20" t="n">
         <v>4.671789743482165</v>
@@ -9421,7 +9421,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.10441994252907</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R20" t="n">
         <v>21.64193954842993</v>
@@ -9570,13 +9570,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N22" t="n">
-        <v>6.116136330339108</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O22" t="n">
-        <v>8.983460966937349</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P22" t="n">
-        <v>10.81576169638986</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q22" t="n">
         <v>16.61252925040833</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.415995117306384</v>
+        <v>14.38142489180555</v>
       </c>
       <c r="K23" t="n">
         <v>2.786362146091513</v>
@@ -9661,7 +9661,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R23" t="n">
-        <v>25.7126377423279</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>7.453525154664103</v>
       </c>
       <c r="L25" t="n">
-        <v>4.629166113207063</v>
+        <v>12.72085475511482</v>
       </c>
       <c r="M25" t="n">
-        <v>12.11073915485698</v>
+        <v>12.43767606968154</v>
       </c>
       <c r="N25" t="n">
         <v>11.0445927885535</v>
       </c>
       <c r="O25" t="n">
-        <v>14.15339270323919</v>
+        <v>13.82645578841463</v>
       </c>
       <c r="P25" t="n">
-        <v>16.40738255644908</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q25" t="n">
         <v>14.881611906857</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.415995117306384</v>
+        <v>14.38142489180555</v>
       </c>
       <c r="K26" t="n">
         <v>2.786362146091513</v>
@@ -9898,7 +9898,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R26" t="n">
-        <v>25.71263774232791</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.41484263875958</v>
+        <v>20.50653128066733</v>
       </c>
       <c r="K28" t="n">
-        <v>7.453525154664103</v>
+        <v>15.54521379657186</v>
       </c>
       <c r="L28" t="n">
-        <v>12.72085475511482</v>
+        <v>12.39391784029026</v>
       </c>
       <c r="M28" t="n">
-        <v>12.43767606968154</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N28" t="n">
-        <v>10.71765587372894</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O28" t="n">
-        <v>14.15339270323919</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P28" t="n">
         <v>8.315693914541322</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.881611906857</v>
+        <v>22.97330054876476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.415995117306384</v>
+        <v>14.38142489180555</v>
       </c>
       <c r="K29" t="n">
-        <v>9.751791920590676</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>7.453525154664103</v>
       </c>
       <c r="L31" t="n">
-        <v>4.629166113207063</v>
+        <v>12.72085475511482</v>
       </c>
       <c r="M31" t="n">
         <v>12.43767606968154</v>
       </c>
       <c r="N31" t="n">
-        <v>10.71765587372894</v>
+        <v>11.0445927885535</v>
       </c>
       <c r="O31" t="n">
-        <v>14.15339270323919</v>
+        <v>13.82645578841463</v>
       </c>
       <c r="P31" t="n">
-        <v>16.40738255644908</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q31" t="n">
         <v>14.881611906857</v>
@@ -10354,7 +10354,7 @@
         <v>2.786362146091513</v>
       </c>
       <c r="L32" t="n">
-        <v>5.164372980632873</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.801056793866287</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0.2941343268911112</v>
@@ -10372,7 +10372,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R32" t="n">
-        <v>18.74720796782874</v>
+        <v>25.71263774232791</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.41484263875958</v>
+        <v>20.50653128066733</v>
       </c>
       <c r="K34" t="n">
         <v>7.453525154664103</v>
@@ -10515,16 +10515,16 @@
         <v>4.629166113207063</v>
       </c>
       <c r="M34" t="n">
-        <v>4.345987427773778</v>
+        <v>12.43767606968154</v>
       </c>
       <c r="N34" t="n">
         <v>11.0445927885535</v>
       </c>
       <c r="O34" t="n">
-        <v>14.15339270323919</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P34" t="n">
-        <v>16.40738255644908</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q34" t="n">
         <v>22.6463636339402</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.415995117306384</v>
+        <v>14.38142489180555</v>
       </c>
       <c r="K35" t="n">
         <v>2.786362146091513</v>
       </c>
       <c r="L35" t="n">
-        <v>5.164372980632873</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.801056793866287</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0.2941343268911112</v>
@@ -10746,25 +10746,25 @@
         <v>12.41484263875958</v>
       </c>
       <c r="K37" t="n">
-        <v>15.54521379657186</v>
+        <v>15.2182768817473</v>
       </c>
       <c r="L37" t="n">
-        <v>4.629166113207063</v>
+        <v>12.72085475511482</v>
       </c>
       <c r="M37" t="n">
-        <v>4.345987427773778</v>
+        <v>12.43767606968154</v>
       </c>
       <c r="N37" t="n">
-        <v>11.0445927885535</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O37" t="n">
-        <v>13.82645578841463</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P37" t="n">
-        <v>8.315693914541322</v>
+        <v>16.40738255644908</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.97330054876476</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>2.786362146091513</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.164372980632873</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.801056793866287</v>
       </c>
       <c r="P38" t="n">
         <v>0.2941343268911112</v>
@@ -10846,7 +10846,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R38" t="n">
-        <v>25.71263774232791</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.50653128066733</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K40" t="n">
         <v>15.54521379657186</v>
       </c>
       <c r="L40" t="n">
-        <v>4.629166113207063</v>
+        <v>12.72085475511482</v>
       </c>
       <c r="M40" t="n">
         <v>4.345987427773778</v>
       </c>
       <c r="N40" t="n">
-        <v>10.71765587372894</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O40" t="n">
-        <v>6.061704061331429</v>
+        <v>14.15339270323919</v>
       </c>
       <c r="P40" t="n">
-        <v>8.315693914541322</v>
+        <v>16.08044564162452</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.97330054876476</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>7.415995117306384</v>
       </c>
       <c r="K41" t="n">
-        <v>9.751791920590676</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2941343268911112</v>
+        <v>7.259564101390278</v>
       </c>
       <c r="Q41" t="n">
         <v>8.128025379424045</v>
@@ -11220,7 +11220,7 @@
         <v>12.41484263875958</v>
       </c>
       <c r="K43" t="n">
-        <v>15.2182768817473</v>
+        <v>15.54521379657186</v>
       </c>
       <c r="L43" t="n">
         <v>12.72085475511482</v>
@@ -11235,10 +11235,10 @@
         <v>14.15339270323919</v>
       </c>
       <c r="P43" t="n">
-        <v>8.315693914541322</v>
+        <v>16.08044564162452</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.97330054876476</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.048734084456807</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>7.259564101390278</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.843705317436275</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R44" t="n">
-        <v>16.25505095986412</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.66564216510812</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J45" t="n">
-        <v>5.50018629471475</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.330695053476184</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R45" t="n">
-        <v>13.7425402420767</v>
+        <v>15.06049703097857</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>26.21469960436954</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K46" t="n">
-        <v>5.385920497900839</v>
+        <v>15.2182768817473</v>
       </c>
       <c r="L46" t="n">
-        <v>16.43299203069151</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M46" t="n">
-        <v>1.55633898516275</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2295873088291529</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O46" t="n">
-        <v>3.546280180004732</v>
+        <v>14.15339270323919</v>
       </c>
       <c r="P46" t="n">
-        <v>21.22136849064185</v>
+        <v>16.40738255644908</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.44947004008836</v>
+        <v>22.97330054876476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I11" t="n">
-        <v>26.32956157919251</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I14" t="n">
-        <v>26.32956157919251</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I17" t="n">
-        <v>26.32956157919251</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I20" t="n">
-        <v>26.32956157919251</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>414.5400340449251</v>
       </c>
       <c r="D23" t="n">
-        <v>411.9325352510573</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>413.6254818117133</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>412.781251350586</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>391.9447279052176</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H23" t="n">
         <v>292.2345970210142</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.4158424195746</v>
+        <v>89.32415377766685</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5814254356876</v>
+        <v>209.4897367937799</v>
       </c>
       <c r="U23" t="n">
         <v>255.7506198904062</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>394.1567379888662</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127.6377393258621</v>
+        <v>119.5460506839543</v>
       </c>
       <c r="C24" t="n">
-        <v>108.2391558057625</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
-        <v>102.8015588998678</v>
+        <v>94.70987025796006</v>
       </c>
       <c r="E24" t="n">
-        <v>103.6549143897921</v>
+        <v>96.52775503399978</v>
       </c>
       <c r="F24" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>92.97452028251483</v>
+        <v>84.88283164060707</v>
       </c>
       <c r="H24" t="n">
         <v>51.50264919965579</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>70.80729794623124</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T24" t="n">
-        <v>131.8103338186952</v>
+        <v>139.902022460603</v>
       </c>
       <c r="U24" t="n">
-        <v>174.8196995709376</v>
+        <v>182.9113882128454</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>163.0159971273928</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.4781070335314</v>
@@ -24414,10 +24414,10 @@
         <v>41.33927213211291</v>
       </c>
       <c r="S25" t="n">
-        <v>158.3153389694416</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T25" t="n">
-        <v>240.4090661296859</v>
+        <v>232.3173774877781</v>
       </c>
       <c r="U25" t="n">
         <v>269.2845721195994</v>
@@ -24432,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>216.952181271363</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>414.5400340449251</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24460,7 +24460,7 @@
         <v>400.0364165471253</v>
       </c>
       <c r="H26" t="n">
-        <v>285.1074376652219</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I26" t="n">
         <v>24.55296493005908</v>
@@ -24499,19 +24499,19 @@
         <v>217.5814254356876</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7506198904062</v>
+        <v>247.6589312484984</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>346.7873613692207</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>399.5111102020225</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>393.1922087027508</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.5460506839543</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
         <v>116.3308444476703</v>
@@ -24536,10 +24536,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>85.84736092672247</v>
+        <v>84.88283164060707</v>
       </c>
       <c r="H27" t="n">
-        <v>43.41096055774803</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>69.84276866011584</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T27" t="n">
-        <v>139.902022460603</v>
+        <v>131.8103338186952</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9113882128454</v>
+        <v>174.8196995709376</v>
       </c>
       <c r="V27" t="n">
-        <v>202.9234074721264</v>
+        <v>195.7962481163341</v>
       </c>
       <c r="W27" t="n">
         <v>194.556163395115</v>
@@ -24615,7 +24615,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.4781070335314</v>
+        <v>156.3864183916236</v>
       </c>
       <c r="H28" t="n">
         <v>141.3243555367009</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.33927213211291</v>
+        <v>33.24758349020515</v>
       </c>
       <c r="S28" t="n">
         <v>166.4070276113493</v>
       </c>
       <c r="T28" t="n">
-        <v>240.4090661296859</v>
+        <v>232.3173774877781</v>
       </c>
       <c r="U28" t="n">
-        <v>269.2845721195994</v>
+        <v>270.2491014057148</v>
       </c>
       <c r="V28" t="n">
-        <v>270.8026640761436</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>232.0465689467452</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.952181271363</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>414.5400340449251</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>413.6254818117133</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>412.781251350586</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>391.9447279052176</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H29" t="n">
-        <v>292.2345970210142</v>
+        <v>284.1429083791065</v>
       </c>
       <c r="I29" t="n">
-        <v>17.42580557426673</v>
+        <v>24.55296493005908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>97.4158424195746</v>
+        <v>89.32415377766685</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5814254356876</v>
+        <v>210.4542660798953</v>
       </c>
       <c r="U29" t="n">
         <v>255.7506198904062</v>
@@ -24773,7 +24773,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>92.97452028251483</v>
+        <v>84.88283164060707</v>
       </c>
       <c r="H30" t="n">
         <v>51.50264919965579</v>
@@ -24812,19 +24812,19 @@
         <v>77.93445730202359</v>
       </c>
       <c r="T30" t="n">
-        <v>139.902022460603</v>
+        <v>131.8103338186952</v>
       </c>
       <c r="U30" t="n">
         <v>174.8196995709376</v>
       </c>
       <c r="V30" t="n">
-        <v>194.8317188302186</v>
+        <v>195.7962481163341</v>
       </c>
       <c r="W30" t="n">
-        <v>186.4644747532072</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X30" t="n">
-        <v>154.7154134152114</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
         <v>138.2959597602405</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.1726203830372</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>153.5919165025892</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,10 +24852,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.4781070335314</v>
+        <v>157.350947677739</v>
       </c>
       <c r="H31" t="n">
-        <v>134.1971961809086</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I31" t="n">
         <v>95.27363565084021</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.33927213211291</v>
+        <v>33.24758349020515</v>
       </c>
       <c r="S31" t="n">
-        <v>166.4070276113493</v>
+        <v>158.3153389694416</v>
       </c>
       <c r="T31" t="n">
         <v>240.4090661296859</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3762607615072</v>
+        <v>269.2845721195994</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24906,7 +24906,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.9876519852476</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24922,13 +24922,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>410.9680059649419</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>413.6254818117133</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>412.781251350586</v>
       </c>
       <c r="G32" t="n">
         <v>400.0364165471253</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.4158424195746</v>
+        <v>90.28868306378226</v>
       </c>
       <c r="T32" t="n">
         <v>217.5814254356876</v>
@@ -24976,16 +24976,16 @@
         <v>255.7506198904062</v>
       </c>
       <c r="V32" t="n">
-        <v>345.8228320831053</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>384.3357475607488</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>399.5111102020225</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>394.1567379888662</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25007,10 +25007,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F33" t="n">
-        <v>84.61768337201713</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.97452028251483</v>
+        <v>84.88283164060707</v>
       </c>
       <c r="H33" t="n">
         <v>51.50264919965579</v>
@@ -25046,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>69.84276866011584</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T33" t="n">
         <v>131.8103338186952</v>
       </c>
       <c r="U33" t="n">
-        <v>175.784228857053</v>
+        <v>174.8196995709376</v>
       </c>
       <c r="V33" t="n">
-        <v>202.9234074721264</v>
+        <v>195.7962481163341</v>
       </c>
       <c r="W33" t="n">
         <v>194.556163395115</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>33.24758349020515</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S34" t="n">
         <v>158.3153389694416</v>
       </c>
       <c r="T34" t="n">
-        <v>240.4090661296859</v>
+        <v>233.2819067738935</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3762607615072</v>
+        <v>269.2845721195994</v>
       </c>
       <c r="V34" t="n">
-        <v>271.767193362259</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>264.0121911473043</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>215.9876519852476</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>407.558192006707</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>414.5400340449251</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.4158424195746</v>
+        <v>89.32415377766685</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5814254356876</v>
+        <v>209.4897367937799</v>
       </c>
       <c r="U35" t="n">
         <v>255.7506198904062</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>346.7873613692207</v>
       </c>
       <c r="W35" t="n">
-        <v>384.3357475607488</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>400.4756394881379</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>393.1922087027508</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>92.70937201392488</v>
+        <v>84.61768337201713</v>
       </c>
       <c r="G36" t="n">
-        <v>92.97452028251483</v>
+        <v>85.84736092672247</v>
       </c>
       <c r="H36" t="n">
-        <v>43.41096055774803</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>77.93445730202359</v>
       </c>
       <c r="T36" t="n">
-        <v>131.8103338186952</v>
+        <v>139.902022460603</v>
       </c>
       <c r="U36" t="n">
         <v>174.8196995709376</v>
       </c>
       <c r="V36" t="n">
-        <v>195.7962481163341</v>
+        <v>194.8317188302186</v>
       </c>
       <c r="W36" t="n">
         <v>194.556163395115</v>
@@ -25314,7 +25314,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>162.1611488479654</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.21211277632056</v>
+        <v>33.24758349020515</v>
       </c>
       <c r="S37" t="n">
-        <v>166.4070276113493</v>
+        <v>159.279868255557</v>
       </c>
       <c r="T37" t="n">
         <v>240.4090661296859</v>
       </c>
       <c r="U37" t="n">
-        <v>269.2845721195994</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V37" t="n">
         <v>270.8026640761436</v>
       </c>
       <c r="W37" t="n">
-        <v>264.0121911473043</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>407.558192006707</v>
       </c>
       <c r="C38" t="n">
-        <v>414.5400340449251</v>
+        <v>415.5045633310405</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>413.6254818117133</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,7 +25408,7 @@
         <v>400.0364165471253</v>
       </c>
       <c r="H38" t="n">
-        <v>285.1074376652219</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I38" t="n">
         <v>24.55296493005908</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.4158424195746</v>
+        <v>89.32415377766685</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5814254356876</v>
+        <v>209.4897367937799</v>
       </c>
       <c r="U38" t="n">
         <v>255.7506198904062</v>
       </c>
       <c r="V38" t="n">
-        <v>345.8228320831053</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25487,7 +25487,7 @@
         <v>84.88283164060707</v>
       </c>
       <c r="H39" t="n">
-        <v>43.41096055774803</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>69.84276866011584</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T39" t="n">
-        <v>132.7748631048106</v>
+        <v>139.902022460603</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9113882128454</v>
+        <v>174.8196995709376</v>
       </c>
       <c r="V39" t="n">
-        <v>202.9234074721264</v>
+        <v>194.8317188302186</v>
       </c>
       <c r="W39" t="n">
-        <v>194.556163395115</v>
+        <v>187.4290040393226</v>
       </c>
       <c r="X39" t="n">
         <v>161.8425727710037</v>
@@ -25554,22 +25554,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>154.5564457887047</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>156.4544351467672</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.4781070335314</v>
+        <v>156.3864183916236</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2326668947932</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I40" t="n">
-        <v>87.18194700893244</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.33927213211291</v>
+        <v>33.24758349020515</v>
       </c>
       <c r="S40" t="n">
         <v>166.4070276113493</v>
       </c>
       <c r="T40" t="n">
-        <v>240.4090661296859</v>
+        <v>232.3173774877781</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3762607615072</v>
+        <v>270.2491014057148</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25630,16 +25630,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>414.5400340449251</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>413.6254818117133</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>412.781251350586</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.0364165471253</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.4158424195746</v>
+        <v>89.32415377766685</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5814254356876</v>
+        <v>209.4897367937799</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7506198904062</v>
+        <v>248.6234605346138</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>399.5111102020225</v>
       </c>
       <c r="Y41" t="n">
-        <v>394.1567379888662</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>119.5460506839543</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C42" t="n">
-        <v>116.3308444476703</v>
+        <v>109.2036850918779</v>
       </c>
       <c r="D42" t="n">
-        <v>102.8015588998678</v>
+        <v>94.70987025796006</v>
       </c>
       <c r="E42" t="n">
         <v>103.6549143897921</v>
@@ -25724,7 +25724,7 @@
         <v>92.97452028251483</v>
       </c>
       <c r="H42" t="n">
-        <v>51.50264919965579</v>
+        <v>43.41096055774803</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>139.902022460603</v>
       </c>
       <c r="U42" t="n">
-        <v>174.8196995709376</v>
+        <v>182.9113882128454</v>
       </c>
       <c r="V42" t="n">
-        <v>202.9234074721264</v>
+        <v>194.8317188302186</v>
       </c>
       <c r="W42" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X42" t="n">
-        <v>153.750884129096</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.1688004044482</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="43">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>180.1726203830372</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>153.5919165025892</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.21211277632056</v>
+        <v>33.24758349020515</v>
       </c>
       <c r="S43" t="n">
         <v>166.4070276113493</v>
       </c>
       <c r="T43" t="n">
-        <v>232.3173774877781</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U43" t="n">
-        <v>269.2845721195994</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V43" t="n">
-        <v>270.8026640761436</v>
+        <v>271.767193362259</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>414.5400340449251</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.9967427842381</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H44" t="n">
-        <v>291.8282880968454</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I44" t="n">
-        <v>23.02344218634936</v>
+        <v>16.46127628815132</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.45372228830286</v>
+        <v>97.4158424195746</v>
       </c>
       <c r="T44" t="n">
-        <v>202.3496992791696</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7474459893752</v>
+        <v>255.7506198904062</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>394.339664652181</v>
+        <v>400.4756394881379</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>393.1922087027508</v>
       </c>
     </row>
     <row r="45">
@@ -25958,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>77.89523868848713</v>
+        <v>85.84736092672247</v>
       </c>
       <c r="H45" t="n">
-        <v>51.29763783704193</v>
+        <v>43.41096055774803</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.48211461353915</v>
+        <v>69.84276866011584</v>
       </c>
       <c r="T45" t="n">
-        <v>124.758407146518</v>
+        <v>131.8103338186952</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9099916776777</v>
+        <v>182.9113882128454</v>
       </c>
       <c r="V45" t="n">
-        <v>189.6602732803772</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
         <v>194.556163395115</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>151.2829895969258</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4603107493182</v>
+        <v>164.4781070335314</v>
       </c>
       <c r="H46" t="n">
-        <v>141.1661303916059</v>
+        <v>133.2326668947932</v>
       </c>
       <c r="I46" t="n">
-        <v>94.73845284923044</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>25.48103222065013</v>
+        <v>33.24758349020515</v>
       </c>
       <c r="S46" t="n">
-        <v>151.0388326533557</v>
+        <v>158.3153389694416</v>
       </c>
       <c r="T46" t="n">
-        <v>225.2749732012961</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3752900550955</v>
+        <v>270.2491014057148</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67503.32731145258</v>
+        <v>67503.32731145255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67503.32731145258</v>
+        <v>67503.32731145257</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67503.32731145255</v>
+        <v>67503.32731145257</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67503.32731145258</v>
+        <v>67503.32731145257</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>73127.13318712753</v>
+        <v>67503.32731145257</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>13208.08705275632</v>
       </c>
       <c r="D2" t="n">
-        <v>13238.5282566305</v>
+        <v>13238.52825663051</v>
       </c>
       <c r="E2" t="n">
-        <v>13319.88837947264</v>
+        <v>13319.88837947263</v>
       </c>
       <c r="F2" t="n">
-        <v>13319.88837947264</v>
+        <v>13319.88837947263</v>
       </c>
       <c r="G2" t="n">
         <v>13319.88837947263</v>
       </c>
       <c r="H2" t="n">
-        <v>13319.88837947264</v>
+        <v>13319.88837947263</v>
       </c>
       <c r="I2" t="n">
-        <v>14930.29082612334</v>
+        <v>14930.29082612335</v>
       </c>
       <c r="J2" t="n">
-        <v>14930.29082612334</v>
+        <v>14930.29082612335</v>
       </c>
       <c r="K2" t="n">
-        <v>14930.29082612334</v>
+        <v>14930.29082612335</v>
       </c>
       <c r="L2" t="n">
         <v>14930.29082612334</v>
@@ -26349,13 +26349,13 @@
         <v>14930.29082612335</v>
       </c>
       <c r="N2" t="n">
-        <v>14930.29082612334</v>
+        <v>14930.29082612335</v>
       </c>
       <c r="O2" t="n">
-        <v>14930.29082612333</v>
+        <v>14930.29082612335</v>
       </c>
       <c r="P2" t="n">
-        <v>16316.73223919225</v>
+        <v>14930.29082612335</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>3849.713455507073</v>
@@ -26374,7 +26374,7 @@
         <v>2482.778886658995</v>
       </c>
       <c r="E3" t="n">
-        <v>6224.973491473429</v>
+        <v>6224.973491473424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10780.53337535085</v>
+        <v>10780.53337535086</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8215.136427835374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,22 +26420,22 @@
         <v>4728.209364371914</v>
       </c>
       <c r="C4" t="n">
-        <v>4083.012747213918</v>
+        <v>4083.012747213917</v>
       </c>
       <c r="D4" t="n">
         <v>3659.00324845941</v>
       </c>
       <c r="E4" t="n">
-        <v>2614.907215318501</v>
+        <v>2614.907215318502</v>
       </c>
       <c r="F4" t="n">
-        <v>2614.907215318501</v>
+        <v>2614.907215318502</v>
       </c>
       <c r="G4" t="n">
-        <v>2614.907215318501</v>
+        <v>2614.907215318502</v>
       </c>
       <c r="H4" t="n">
-        <v>2614.907215318501</v>
+        <v>2614.907215318502</v>
       </c>
       <c r="I4" t="n">
         <v>2046.761178516203</v>
@@ -26447,7 +26447,7 @@
         <v>2046.761178516203</v>
       </c>
       <c r="L4" t="n">
-        <v>2046.761178516202</v>
+        <v>2046.761178516203</v>
       </c>
       <c r="M4" t="n">
         <v>2046.761178516203</v>
@@ -26456,10 +26456,10 @@
         <v>2046.761178516203</v>
       </c>
       <c r="O4" t="n">
-        <v>2046.761178516202</v>
+        <v>2046.761178516203</v>
       </c>
       <c r="P4" t="n">
-        <v>1597.595599081633</v>
+        <v>2046.761178516203</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>1897.851018453352</v>
       </c>
       <c r="P5" t="n">
-        <v>2536.546945698387</v>
+        <v>1897.851018453352</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62787.35110847439</v>
+        <v>-64142.1985878581</v>
       </c>
       <c r="C6" t="n">
-        <v>-29276.11037045779</v>
+        <v>-30630.61637084911</v>
       </c>
       <c r="D6" t="n">
-        <v>-27517.92418228555</v>
+        <v>-28872.19601957014</v>
       </c>
       <c r="E6" t="n">
-        <v>3324.025350737593</v>
+        <v>1970.379360551783</v>
       </c>
       <c r="F6" t="n">
-        <v>9548.998842211024</v>
+        <v>8195.352852025206</v>
       </c>
       <c r="G6" t="n">
-        <v>9548.998842211018</v>
+        <v>8195.352852025204</v>
       </c>
       <c r="H6" t="n">
-        <v>9548.99884221102</v>
+        <v>8195.352852025206</v>
       </c>
       <c r="I6" t="n">
-        <v>205.1452538029316</v>
+        <v>-1136.113025254797</v>
       </c>
       <c r="J6" t="n">
-        <v>10985.67862915378</v>
+        <v>9644.420350096065</v>
       </c>
       <c r="K6" t="n">
-        <v>10985.67862915378</v>
+        <v>9644.420350096065</v>
       </c>
       <c r="L6" t="n">
-        <v>10985.67862915379</v>
+        <v>9644.420350096061</v>
       </c>
       <c r="M6" t="n">
-        <v>10985.6786291538</v>
+        <v>9644.420350096065</v>
       </c>
       <c r="N6" t="n">
-        <v>10985.67862915378</v>
+        <v>9644.420350096065</v>
       </c>
       <c r="O6" t="n">
-        <v>10985.67862915378</v>
+        <v>9644.420350096065</v>
       </c>
       <c r="P6" t="n">
-        <v>3967.453266576857</v>
+        <v>9644.420350096065</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>64.4897407809798</v>
       </c>
       <c r="P3" t="n">
-        <v>74.35858929917691</v>
+        <v>64.4897407809798</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="P4" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>2.89904051855644</v>
       </c>
       <c r="E3" t="n">
-        <v>7.748257713094709</v>
+        <v>7.748257713094702</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.46302876524061</v>
+        <v>11.46302876524062</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.868848518197112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.966365617571366</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31758,13 +31758,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I11" t="n">
-        <v>8.218340964770997</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J11" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K11" t="n">
-        <v>27.11636831586768</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L11" t="n">
         <v>33.64025268914076</v>
@@ -31782,7 +31782,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.02025466206897</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R11" t="n">
         <v>13.39071034636654</v>
@@ -31791,7 +31791,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T11" t="n">
-        <v>0.933163545121199</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U11" t="n">
         <v>0.01705381692968495</v>
@@ -31834,10 +31834,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H12" t="n">
-        <v>1.10155490432696</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I12" t="n">
-        <v>3.926978201165592</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J12" t="n">
         <v>10.77592833519847</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H13" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I13" t="n">
-        <v>2.87561251390271</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J13" t="n">
         <v>6.760471136826289</v>
@@ -31995,13 +31995,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I14" t="n">
-        <v>8.218340964770997</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J14" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K14" t="n">
-        <v>27.11636831586768</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L14" t="n">
         <v>33.64025268914076</v>
@@ -32019,7 +32019,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.02025466206897</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R14" t="n">
         <v>13.39071034636654</v>
@@ -32028,7 +32028,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T14" t="n">
-        <v>0.933163545121199</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U14" t="n">
         <v>0.01705381692968495</v>
@@ -32071,10 +32071,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H15" t="n">
-        <v>1.10155490432696</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I15" t="n">
-        <v>3.926978201165592</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J15" t="n">
         <v>10.77592833519847</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H16" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I16" t="n">
-        <v>2.87561251390271</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J16" t="n">
         <v>6.760471136826289</v>
@@ -32232,13 +32232,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I17" t="n">
-        <v>8.218340964770997</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J17" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K17" t="n">
-        <v>27.11636831586768</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L17" t="n">
         <v>33.64025268914076</v>
@@ -32256,7 +32256,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.02025466206897</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R17" t="n">
         <v>13.39071034636654</v>
@@ -32265,7 +32265,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T17" t="n">
-        <v>0.933163545121199</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U17" t="n">
         <v>0.01705381692968495</v>
@@ -32308,10 +32308,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H18" t="n">
-        <v>1.10155490432696</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I18" t="n">
-        <v>3.926978201165592</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J18" t="n">
         <v>10.77592833519847</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H19" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I19" t="n">
-        <v>2.87561251390271</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J19" t="n">
         <v>6.760471136826289</v>
@@ -32469,13 +32469,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I20" t="n">
-        <v>8.218340964770997</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J20" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K20" t="n">
-        <v>27.11636831586768</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L20" t="n">
         <v>33.64025268914076</v>
@@ -32493,7 +32493,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.02025466206897</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R20" t="n">
         <v>13.39071034636654</v>
@@ -32502,7 +32502,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T20" t="n">
-        <v>0.933163545121199</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U20" t="n">
         <v>0.01705381692968495</v>
@@ -32545,10 +32545,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H21" t="n">
-        <v>1.10155490432696</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I21" t="n">
-        <v>3.926978201165592</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J21" t="n">
         <v>10.77592833519847</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H22" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I22" t="n">
-        <v>2.87561251390271</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J22" t="n">
         <v>6.760471136826289</v>
@@ -32794,13 +32794,13 @@
         <v>22.39923383333333</v>
       </c>
       <c r="L24" t="n">
-        <v>25.56243121102539</v>
+        <v>30.11853412606043</v>
       </c>
       <c r="M24" t="n">
         <v>31.18846915423574</v>
       </c>
       <c r="N24" t="n">
-        <v>29.43471685544942</v>
+        <v>24.87861394041439</v>
       </c>
       <c r="O24" t="n">
         <v>31.26357836412998</v>
@@ -33034,13 +33034,13 @@
         <v>30.11853412606043</v>
       </c>
       <c r="M27" t="n">
-        <v>26.6323662392007</v>
+        <v>31.18846915423574</v>
       </c>
       <c r="N27" t="n">
         <v>29.43471685544942</v>
       </c>
       <c r="O27" t="n">
-        <v>31.26357836412998</v>
+        <v>26.70747544909495</v>
       </c>
       <c r="P27" t="n">
         <v>26.48824843511603</v>
@@ -33502,10 +33502,10 @@
         <v>13.10541043550081</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333333</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>30.11853412606043</v>
+        <v>25.56243121102539</v>
       </c>
       <c r="M33" t="n">
         <v>31.18846915423574</v>
@@ -33514,7 +33514,7 @@
         <v>29.43471685544942</v>
       </c>
       <c r="O33" t="n">
-        <v>26.70747544909495</v>
+        <v>31.26357836412998</v>
       </c>
       <c r="P33" t="n">
         <v>26.48824843511603</v>
@@ -33976,16 +33976,16 @@
         <v>13.10541043550081</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333333</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>30.11853412606043</v>
       </c>
       <c r="M39" t="n">
-        <v>31.18846915423574</v>
+        <v>26.6323662392007</v>
       </c>
       <c r="N39" t="n">
-        <v>24.87861394041439</v>
+        <v>29.43471685544942</v>
       </c>
       <c r="O39" t="n">
         <v>31.26357836412998</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2989290022077462</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H44" t="n">
-        <v>3.061406643860081</v>
+        <v>2.655097719691293</v>
       </c>
       <c r="I44" t="n">
-        <v>11.52446035761414</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J44" t="n">
-        <v>25.37122540112972</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K44" t="n">
-        <v>38.02489006458362</v>
+        <v>32.97823864871783</v>
       </c>
       <c r="L44" t="n">
-        <v>47.17323851589894</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M44" t="n">
-        <v>52.48931715891094</v>
+        <v>45.52295154133957</v>
       </c>
       <c r="N44" t="n">
-        <v>52.33767709392515</v>
+        <v>45.37131147635378</v>
       </c>
       <c r="O44" t="n">
-        <v>50.36617392073043</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P44" t="n">
-        <v>42.98636417872669</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.28096928716177</v>
+        <v>27.996649225174</v>
       </c>
       <c r="R44" t="n">
-        <v>18.77759893493235</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S44" t="n">
-        <v>6.811844637809022</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T44" t="n">
-        <v>1.30856170716441</v>
+        <v>1.134889810125584</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02391432017661969</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1599411166057768</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H45" t="n">
-        <v>1.544694468271581</v>
+        <v>1.339683105657713</v>
       </c>
       <c r="I45" t="n">
-        <v>5.506744584891876</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J45" t="n">
-        <v>15.11092803861859</v>
+        <v>13.10541043550081</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>34.72756569109202</v>
+        <v>30.11853412606043</v>
       </c>
       <c r="M45" t="n">
-        <v>31.79699037975684</v>
+        <v>31.18846915423574</v>
       </c>
       <c r="N45" t="n">
-        <v>36.40108247302079</v>
+        <v>29.43471685544942</v>
       </c>
       <c r="O45" t="n">
-        <v>38.05406031804198</v>
+        <v>26.70747544909495</v>
       </c>
       <c r="P45" t="n">
-        <v>30.54173831044873</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.41634323550231</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R45" t="n">
-        <v>9.930379152067442</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S45" t="n">
-        <v>2.970836091339755</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6446749393013543</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U45" t="n">
-        <v>0.010522441881959</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1340892593919583</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H46" t="n">
-        <v>1.192175415321231</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I46" t="n">
-        <v>4.032429727896349</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J46" t="n">
-        <v>9.480110639011455</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K46" t="n">
-        <v>15.57873395481116</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L46" t="n">
-        <v>19.93541589178261</v>
+        <v>17.28959378249416</v>
       </c>
       <c r="M46" t="n">
-        <v>21.01910090632307</v>
+        <v>18.22945246371204</v>
       </c>
       <c r="N46" t="n">
-        <v>20.51931366677124</v>
+        <v>17.79599682895465</v>
       </c>
       <c r="O46" t="n">
-        <v>18.95290731841972</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P46" t="n">
-        <v>16.21748642682376</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.22814698417571</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R46" t="n">
-        <v>6.029140699569326</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S46" t="n">
-        <v>2.336810093221673</v>
+        <v>2.026669394707184</v>
       </c>
       <c r="T46" t="n">
-        <v>0.572926835583822</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U46" t="n">
-        <v>0.007313959603197737</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.965429774499164</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.965429774499166</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3.047344496795835</v>
+        <v>7.603447411830871</v>
       </c>
       <c r="M24" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="N24" t="n">
-        <v>8.091688641907758</v>
+        <v>3.535585726872722</v>
       </c>
       <c r="O24" t="n">
         <v>8.091688641907758</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="M25" t="n">
-        <v>7.764751727083198</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N25" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="O25" t="n">
-        <v>8.091688641907758</v>
+        <v>7.7647517270832</v>
       </c>
       <c r="P25" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>6.965429774499164</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.965429774499166</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>7.603447411830871</v>
       </c>
       <c r="M27" t="n">
-        <v>3.535585726872722</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N27" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="O27" t="n">
-        <v>8.091688641907758</v>
+        <v>3.535585726872726</v>
       </c>
       <c r="P27" t="n">
         <v>4.717407230287364</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="L28" t="n">
+        <v>7.7647517270832</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="M28" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.7647517270832</v>
-      </c>
-      <c r="O28" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.965429774499164</v>
       </c>
       <c r="K29" t="n">
-        <v>6.965429774499164</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>2.600378746450325</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="M31" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="N31" t="n">
-        <v>7.764751727083197</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O31" t="n">
-        <v>8.091688641907758</v>
+        <v>7.7647517270832</v>
       </c>
       <c r="P31" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.764751727083198</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M32" t="n">
         <v>8.091688641907758</v>
@@ -37083,7 +37083,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="O32" t="n">
-        <v>8.091688641907758</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.965429774499166</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>7.603447411830871</v>
+        <v>3.047344496795835</v>
       </c>
       <c r="M33" t="n">
         <v>8.091688641907758</v>
@@ -37162,7 +37162,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="O33" t="n">
-        <v>3.535585726872726</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P33" t="n">
         <v>4.717407230287364</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37235,16 +37235,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N34" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="O34" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>7.7647517270832</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>6.965429774499164</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.764751727083198</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M35" t="n">
         <v>8.091688641907758</v>
@@ -37320,7 +37320,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="O35" t="n">
-        <v>8.091688641907758</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>7.764751727083198</v>
+      </c>
+      <c r="L37" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>8.091688641907758</v>
       </c>
-      <c r="O37" t="n">
-        <v>7.7647517270832</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2.600378746450325</v>
+        <v>7.764751727083198</v>
       </c>
       <c r="M38" t="n">
         <v>8.091688641907758</v>
@@ -37557,7 +37557,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="O38" t="n">
-        <v>6.290631848041471</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.965429774499166</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>7.603447411830871</v>
       </c>
       <c r="M39" t="n">
+        <v>3.535585726872722</v>
+      </c>
+      <c r="N39" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.535585726872722</v>
       </c>
       <c r="O39" t="n">
         <v>8.091688641907758</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8.091688641907758</v>
+      </c>
+      <c r="P40" t="n">
         <v>7.7647517270832</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>6.965429774499164</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>2.600378746450325</v>
@@ -37797,7 +37797,7 @@
         <v>6.290631848041471</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>6.965429774499166</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.764751727083198</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="L43" t="n">
         <v>8.091688641907758</v>
@@ -37955,10 +37955,10 @@
         <v>8.091688641907758</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>7.7647517270832</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.260289269774283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.86119608327602</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M44" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N44" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O44" t="n">
-        <v>12.97521456470633</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P44" t="n">
-        <v>5.411002368495389</v>
+        <v>6.965429774499166</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>12.21247897686246</v>
+        <v>7.603447411830871</v>
       </c>
       <c r="M45" t="n">
-        <v>8.700209867428866</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N45" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O45" t="n">
-        <v>14.88217059581976</v>
+        <v>3.535585726872726</v>
       </c>
       <c r="P45" t="n">
-        <v>8.770897105620062</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>7.764751727083198</v>
       </c>
       <c r="L46" t="n">
-        <v>14.4496480267729</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38189,13 +38189,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P46" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.05805425947912</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
